--- a/src/assets/Excel/Demo_Expense_Template.xlsx
+++ b/src/assets/Excel/Demo_Expense_Template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>S.No</t>
   </si>
@@ -70,6 +70,9 @@
     <t>Demand Draft Date</t>
   </si>
   <si>
+    <t>UnitName</t>
+  </si>
+  <si>
     <t>Corpus</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t>DDNO102</t>
   </si>
   <si>
+    <t>A101</t>
+  </si>
+  <si>
     <t>Common Area Electric Bill</t>
   </si>
   <si>
@@ -379,9 +385,6 @@
     <t>Unsold rental expense</t>
   </si>
   <si>
-    <t>All Vacant Unit</t>
-  </si>
-  <si>
     <t>Oriental Bank of Commerce</t>
   </si>
   <si>
@@ -400,6 +403,9 @@
     <t>DDNO111</t>
   </si>
   <si>
+    <t>A102</t>
+  </si>
+  <si>
     <t>One Time Occupancy Fees</t>
   </si>
   <si>
@@ -422,15 +428,38 @@
   </si>
   <si>
     <t>DDNO112</t>
+  </si>
+  <si>
+    <t>State Bank of India</t>
+  </si>
+  <si>
+    <t>Name13</t>
+  </si>
+  <si>
+    <t>INV1013</t>
+  </si>
+  <si>
+    <t>VCNO113</t>
+  </si>
+  <si>
+    <t>CHK113</t>
+  </si>
+  <si>
+    <t>DDNO113</t>
+  </si>
+  <si>
+    <t>A103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d/m/yy"/>
+    <numFmt numFmtId="59" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="60" formatCode="d/m/yy"/>
+    <numFmt numFmtId="61" formatCode="d/m/yyyy h:mm AM/PM"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -481,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -554,6 +583,21 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -600,7 +644,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -622,31 +666,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1732,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1744,8 +1800,8 @@
     <col min="4" max="4" width="21.8516" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.1719" style="1" customWidth="1"/>
     <col min="6" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="19" width="18" style="1" customWidth="1"/>
-    <col min="20" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="20" width="18" style="1" customWidth="1"/>
+    <col min="21" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1806,903 +1862,971 @@
       <c r="S1" t="s" s="2">
         <v>18</v>
       </c>
+      <c r="T1" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="6">
         <v>1000</v>
       </c>
       <c r="H2" t="s" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="L2" s="7">
+        <v>43937</v>
+      </c>
+      <c r="M2" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="K2" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="O2" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="8">
         <v>43840</v>
       </c>
-      <c r="M2" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="7">
+      <c r="R2" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="S2" s="8">
         <v>43840</v>
       </c>
-      <c r="R2" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="S2" s="7">
-        <v>43840</v>
-      </c>
+      <c r="T2" s="9"/>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s" s="10">
+      <c r="B3" t="s" s="11">
         <v>33</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="C3" t="s" s="12">
         <v>34</v>
       </c>
-      <c r="E3" t="s" s="10">
+      <c r="D3" t="s" s="12">
         <v>35</v>
       </c>
-      <c r="F3" t="s" s="10">
+      <c r="E3" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="G3" s="11">
+      <c r="F3" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="G3" s="13">
         <v>2000</v>
       </c>
-      <c r="H3" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s" s="10">
+      <c r="H3" t="s" s="12">
         <v>38</v>
       </c>
-      <c r="J3" t="s" s="10">
+      <c r="I3" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="K3" t="s" s="10">
+      <c r="J3" t="s" s="12">
         <v>40</v>
       </c>
-      <c r="L3" s="12">
+      <c r="K3" t="s" s="12">
+        <v>41</v>
+      </c>
+      <c r="L3" s="7">
+        <v>43937</v>
+      </c>
+      <c r="M3" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s" s="12">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="14">
         <v>43841</v>
       </c>
-      <c r="M3" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="N3" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="P3" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="12">
+      <c r="R3" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="S3" s="14">
         <v>43841</v>
       </c>
-      <c r="R3" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="S3" s="12">
-        <v>43841</v>
+      <c r="T3" t="s" s="12">
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s" s="10">
+      <c r="B4" t="s" s="11">
         <v>47</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="C4" t="s" s="12">
         <v>48</v>
       </c>
-      <c r="F4" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="D4" t="s" s="12">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="G4" s="13">
         <v>3000</v>
       </c>
-      <c r="H4" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="J4" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s" s="10">
+      <c r="H4" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s" s="12">
         <v>51</v>
       </c>
-      <c r="L4" s="12">
+      <c r="J4" t="s" s="12">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s" s="12">
+        <v>53</v>
+      </c>
+      <c r="L4" s="7">
+        <v>43937</v>
+      </c>
+      <c r="M4" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s" s="12">
+        <v>55</v>
+      </c>
+      <c r="P4" t="s" s="12">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="14">
         <v>43842</v>
       </c>
-      <c r="M4" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="N4" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="O4" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="12">
+      <c r="R4" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="S4" s="14">
         <v>43842</v>
       </c>
-      <c r="R4" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="S4" s="12">
-        <v>43842</v>
-      </c>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="9">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s" s="10">
+      <c r="B5" t="s" s="11">
         <v>58</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="C5" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="F5" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="D5" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="G5" s="13">
         <v>4000</v>
       </c>
-      <c r="H5" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s" s="10">
-        <v>60</v>
-      </c>
-      <c r="J5" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s" s="10">
-        <v>61</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="H5" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s" s="12">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s" s="12">
+        <v>63</v>
+      </c>
+      <c r="L5" s="7">
+        <v>43937</v>
+      </c>
+      <c r="M5" t="s" s="12">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s" s="12">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s" s="12">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="14">
         <v>43843</v>
       </c>
-      <c r="M5" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="N5" t="s" s="10">
-        <v>60</v>
-      </c>
-      <c r="O5" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="P5" t="s" s="10">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="12">
+      <c r="R5" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="S5" s="14">
         <v>43843</v>
       </c>
-      <c r="R5" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="S5" s="12">
-        <v>43843</v>
-      </c>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="9">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s" s="10">
+      <c r="B6" t="s" s="11">
         <v>68</v>
       </c>
-      <c r="F6" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="C6" t="s" s="12">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="G6" s="13">
         <v>5000</v>
       </c>
-      <c r="H6" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="J6" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="H6" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="L6" s="7">
+        <v>43937</v>
+      </c>
+      <c r="M6" t="s" s="12">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s" s="12">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s" s="12">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="14">
         <v>43844</v>
       </c>
-      <c r="M6" t="s" s="10">
-        <v>71</v>
-      </c>
-      <c r="N6" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="O6" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="P6" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="12">
+      <c r="R6" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="S6" s="14">
         <v>43844</v>
       </c>
-      <c r="R6" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="S6" s="12">
-        <v>43844</v>
-      </c>
+      <c r="T6" s="15"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s" s="10">
+      <c r="B7" t="s" s="11">
         <v>77</v>
       </c>
-      <c r="F7" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="C7" t="s" s="12">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="G7" s="13">
         <v>6000</v>
       </c>
-      <c r="H7" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="L7" s="12">
+      <c r="H7" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="12">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s" s="12">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s" s="12">
+        <v>81</v>
+      </c>
+      <c r="L7" s="7">
+        <v>43937</v>
+      </c>
+      <c r="M7" t="s" s="12">
+        <v>82</v>
+      </c>
+      <c r="N7" t="s" s="12">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s" s="12">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="14">
         <v>43845</v>
       </c>
-      <c r="M7" t="s" s="10">
-        <v>80</v>
-      </c>
-      <c r="N7" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="O7" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="P7" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="Q7" s="12">
+      <c r="R7" t="s" s="12">
+        <v>85</v>
+      </c>
+      <c r="S7" s="14">
         <v>43845</v>
       </c>
-      <c r="R7" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="S7" s="12">
-        <v>43845</v>
-      </c>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s" s="10">
+      <c r="B8" t="s" s="11">
         <v>86</v>
       </c>
-      <c r="F8" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="C8" t="s" s="12">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="G8" s="13">
         <v>7100</v>
       </c>
-      <c r="H8" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s" s="10">
-        <v>87</v>
-      </c>
-      <c r="J8" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="K8" t="s" s="10">
-        <v>88</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="H8" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s" s="12">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s" s="12">
+        <v>90</v>
+      </c>
+      <c r="L8" s="7">
+        <v>43937</v>
+      </c>
+      <c r="M8" t="s" s="12">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s" s="12">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s" s="12">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s" s="12">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="14">
         <v>43846</v>
       </c>
-      <c r="M8" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="N8" t="s" s="10">
-        <v>87</v>
-      </c>
-      <c r="O8" t="s" s="10">
-        <v>90</v>
-      </c>
-      <c r="P8" t="s" s="10">
-        <v>91</v>
-      </c>
-      <c r="Q8" s="12">
+      <c r="R8" t="s" s="12">
+        <v>94</v>
+      </c>
+      <c r="S8" s="14">
         <v>43846</v>
       </c>
-      <c r="R8" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="S8" s="12">
-        <v>43846</v>
-      </c>
+      <c r="T8" s="15"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="9">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s" s="10">
+      <c r="B9" t="s" s="11">
         <v>95</v>
       </c>
-      <c r="F9" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="C9" t="s" s="12">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>97</v>
+      </c>
+      <c r="F9" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="G9" s="13">
         <v>7200</v>
       </c>
-      <c r="H9" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="J9" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="K9" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="H9" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s" s="12">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s" s="12">
+        <v>99</v>
+      </c>
+      <c r="L9" s="7">
+        <v>43937</v>
+      </c>
+      <c r="M9" t="s" s="12">
+        <v>100</v>
+      </c>
+      <c r="N9" t="s" s="12">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s" s="12">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s" s="12">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="14">
         <v>43847</v>
       </c>
-      <c r="M9" t="s" s="10">
-        <v>98</v>
-      </c>
-      <c r="N9" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="O9" t="s" s="10">
-        <v>99</v>
-      </c>
-      <c r="P9" t="s" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="12">
+      <c r="R9" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="S9" s="14">
         <v>43847</v>
       </c>
-      <c r="R9" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="S9" s="12">
-        <v>43847</v>
-      </c>
+      <c r="T9" s="15"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="9">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>103</v>
-      </c>
-      <c r="D10" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s" s="10">
+      <c r="B10" t="s" s="11">
         <v>104</v>
       </c>
-      <c r="F10" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="C10" t="s" s="12">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>106</v>
+      </c>
+      <c r="F10" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="G10" s="13">
         <v>7300</v>
       </c>
-      <c r="H10" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s" s="10">
-        <v>105</v>
-      </c>
-      <c r="J10" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="K10" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="L10" s="12">
+      <c r="H10" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s" s="12">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s" s="12">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s" s="12">
+        <v>108</v>
+      </c>
+      <c r="L10" s="7">
+        <v>43937</v>
+      </c>
+      <c r="M10" t="s" s="12">
+        <v>109</v>
+      </c>
+      <c r="N10" t="s" s="12">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s" s="12">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s" s="12">
+        <v>111</v>
+      </c>
+      <c r="Q10" s="14">
         <v>43848</v>
       </c>
-      <c r="M10" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="N10" t="s" s="10">
-        <v>105</v>
-      </c>
-      <c r="O10" t="s" s="10">
-        <v>108</v>
-      </c>
-      <c r="P10" t="s" s="10">
-        <v>109</v>
-      </c>
-      <c r="Q10" s="12">
+      <c r="R10" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="S10" s="14">
         <v>43848</v>
       </c>
-      <c r="R10" t="s" s="10">
-        <v>110</v>
-      </c>
-      <c r="S10" s="12">
-        <v>43848</v>
-      </c>
+      <c r="T10" s="15"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="9">
-        <v>111</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s" s="10">
+      <c r="B11" t="s" s="11">
         <v>113</v>
       </c>
-      <c r="F11" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="C11" t="s" s="12">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="G11" s="13">
         <v>7400</v>
       </c>
-      <c r="H11" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s" s="10">
-        <v>114</v>
-      </c>
-      <c r="J11" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="K11" t="s" s="10">
-        <v>115</v>
-      </c>
-      <c r="L11" s="12">
+      <c r="H11" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s" s="12">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s" s="12">
+        <v>117</v>
+      </c>
+      <c r="L11" s="7">
+        <v>43937</v>
+      </c>
+      <c r="M11" t="s" s="12">
+        <v>118</v>
+      </c>
+      <c r="N11" t="s" s="12">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s" s="12">
+        <v>119</v>
+      </c>
+      <c r="P11" t="s" s="12">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="14">
         <v>43849</v>
       </c>
-      <c r="M11" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="N11" t="s" s="10">
-        <v>114</v>
-      </c>
-      <c r="O11" t="s" s="10">
-        <v>117</v>
-      </c>
-      <c r="P11" t="s" s="10">
-        <v>118</v>
-      </c>
-      <c r="Q11" s="12">
+      <c r="R11" t="s" s="12">
+        <v>121</v>
+      </c>
+      <c r="S11" s="14">
         <v>43849</v>
       </c>
-      <c r="R11" t="s" s="10">
-        <v>119</v>
-      </c>
-      <c r="S11" s="12">
-        <v>43849</v>
-      </c>
+      <c r="T11" s="15"/>
     </row>
     <row r="12" ht="32.05" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="9">
-        <v>120</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>121</v>
-      </c>
-      <c r="D12" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s" s="10">
+      <c r="B12" t="s" s="11">
         <v>122</v>
       </c>
-      <c r="F12" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="C12" t="s" s="12">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="G12" s="13">
         <v>7500</v>
       </c>
-      <c r="H12" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="I12" t="s" s="10">
-        <v>123</v>
-      </c>
-      <c r="J12" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="K12" t="s" s="10">
+      <c r="H12" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s" s="12">
         <v>124</v>
       </c>
-      <c r="L12" s="12">
+      <c r="J12" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s" s="12">
+        <v>125</v>
+      </c>
+      <c r="L12" s="7">
+        <v>43937</v>
+      </c>
+      <c r="M12" t="s" s="12">
+        <v>126</v>
+      </c>
+      <c r="N12" t="s" s="12">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s" s="12">
+        <v>127</v>
+      </c>
+      <c r="P12" t="s" s="12">
+        <v>128</v>
+      </c>
+      <c r="Q12" s="14">
         <v>43850</v>
       </c>
-      <c r="M12" t="s" s="10">
-        <v>125</v>
-      </c>
-      <c r="N12" t="s" s="10">
-        <v>123</v>
-      </c>
-      <c r="O12" t="s" s="10">
-        <v>126</v>
-      </c>
-      <c r="P12" t="s" s="10">
-        <v>127</v>
-      </c>
-      <c r="Q12" s="12">
+      <c r="R12" t="s" s="12">
+        <v>129</v>
+      </c>
+      <c r="S12" s="14">
         <v>43850</v>
       </c>
-      <c r="R12" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="S12" s="12">
-        <v>43850</v>
+      <c r="T12" t="s" s="12">
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="9">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>130</v>
-      </c>
-      <c r="D13" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="B13" t="s" s="11">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="G13" s="13">
         <v>7600</v>
       </c>
-      <c r="H13" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="J13" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="K13" t="s" s="10">
-        <v>132</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="H13" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s" s="12">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s" s="12">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s" s="12">
+        <v>134</v>
+      </c>
+      <c r="L13" s="8">
+        <v>43937</v>
+      </c>
+      <c r="M13" t="s" s="12">
+        <v>135</v>
+      </c>
+      <c r="N13" t="s" s="12">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s" s="12">
+        <v>136</v>
+      </c>
+      <c r="P13" t="s" s="12">
+        <v>137</v>
+      </c>
+      <c r="Q13" s="14">
         <v>43851</v>
       </c>
-      <c r="M13" t="s" s="10">
-        <v>133</v>
-      </c>
-      <c r="N13" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="O13" t="s" s="10">
-        <v>134</v>
-      </c>
-      <c r="P13" t="s" s="10">
-        <v>135</v>
-      </c>
-      <c r="Q13" s="12">
+      <c r="R13" t="s" s="12">
+        <v>138</v>
+      </c>
+      <c r="S13" s="14">
         <v>43851</v>
       </c>
-      <c r="R13" t="s" s="10">
-        <v>136</v>
-      </c>
-      <c r="S13" s="12">
-        <v>43851</v>
-      </c>
+      <c r="T13" s="15"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="11">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s" s="12">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1500</v>
+      </c>
+      <c r="H14" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s" s="12">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s" s="12">
+        <v>140</v>
+      </c>
+      <c r="L14" s="14">
+        <v>43937</v>
+      </c>
+      <c r="M14" t="s" s="12">
+        <v>141</v>
+      </c>
+      <c r="N14" t="s" s="12">
+        <v>107</v>
+      </c>
+      <c r="O14" t="s" s="12">
+        <v>142</v>
+      </c>
+      <c r="P14" t="s" s="12">
+        <v>143</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>43941</v>
+      </c>
+      <c r="R14" t="s" s="12">
+        <v>144</v>
+      </c>
+      <c r="S14" s="14">
+        <v>43942</v>
+      </c>
+      <c r="T14" t="s" s="12">
+        <v>145</v>
+      </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="18"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="18"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="18"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="18"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="18"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="18"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="18"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
